--- a/new2.xlsx
+++ b/new2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\local-sites-new\test\app\public\wp-content\plugins\wp-data-presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADBEFBF-AAEF-4BCE-A5C0-454A6A274AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{589F88C1-22EB-4298-A979-B4068B2A918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -847,13 +847,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28.4609375" customWidth="1"/>
+    <col min="2" max="2" width="43.3828125" customWidth="1"/>
+    <col min="3" max="3" width="33.921875" customWidth="1"/>
     <col min="5" max="5" width="27.07421875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -957,7 +959,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="1">
-        <v>45184</v>
+        <v>45170</v>
       </c>
       <c r="C2">
         <v>2015</v>
@@ -1043,7 +1045,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="1">
-        <v>45184</v>
+        <v>45171</v>
       </c>
       <c r="C3">
         <v>2016</v>
@@ -1126,7 +1128,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="1">
-        <v>45184</v>
+        <v>45172</v>
       </c>
       <c r="C4">
         <v>2017</v>
@@ -1209,7 +1211,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="1">
-        <v>45184</v>
+        <v>45173</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -1295,7 +1297,7 @@
         <v>76</v>
       </c>
       <c r="B6" s="1">
-        <v>45184</v>
+        <v>45174</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -1375,7 +1377,7 @@
         <v>84</v>
       </c>
       <c r="B7" s="1">
-        <v>45184</v>
+        <v>45175</v>
       </c>
       <c r="C7">
         <v>2020</v>
@@ -1455,7 +1457,7 @@
         <v>89</v>
       </c>
       <c r="B8" s="1">
-        <v>45184</v>
+        <v>45176</v>
       </c>
       <c r="C8">
         <v>2021</v>
@@ -1538,7 +1540,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="1">
-        <v>45184</v>
+        <v>45177</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1624,7 +1626,7 @@
         <v>107</v>
       </c>
       <c r="B10" s="1">
-        <v>45184</v>
+        <v>45178</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -1704,7 +1706,7 @@
         <v>118</v>
       </c>
       <c r="B11" s="1">
-        <v>45184</v>
+        <v>45179</v>
       </c>
       <c r="C11">
         <v>2024</v>
@@ -1784,7 +1786,7 @@
         <v>121</v>
       </c>
       <c r="B12" s="1">
-        <v>45184</v>
+        <v>45180</v>
       </c>
       <c r="C12">
         <v>2025</v>
@@ -1864,7 +1866,7 @@
         <v>127</v>
       </c>
       <c r="B13" s="1">
-        <v>45184</v>
+        <v>45181</v>
       </c>
       <c r="C13">
         <v>2026</v>
@@ -1947,7 +1949,7 @@
         <v>133</v>
       </c>
       <c r="B14" s="1">
-        <v>45184</v>
+        <v>45182</v>
       </c>
       <c r="C14">
         <v>2027</v>
@@ -2027,7 +2029,7 @@
         <v>137</v>
       </c>
       <c r="B15" s="1">
-        <v>45184</v>
+        <v>45182</v>
       </c>
       <c r="C15">
         <v>2028</v>
@@ -2110,7 +2112,7 @@
         <v>140</v>
       </c>
       <c r="B16" s="1">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="C16">
         <v>2029</v>
@@ -2270,7 +2272,7 @@
         <v>151</v>
       </c>
       <c r="B18" s="1">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="C18">
         <v>2031</v>
@@ -2347,7 +2349,7 @@
         <v>154</v>
       </c>
       <c r="B19" s="1">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="C19">
         <v>2032</v>
@@ -2427,7 +2429,7 @@
         <v>158</v>
       </c>
       <c r="B20" s="1">
-        <v>45184</v>
+        <v>45187</v>
       </c>
       <c r="C20">
         <v>2033</v>
@@ -2511,8 +2513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2C957B-76E5-4C66-962A-323752993760}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2617,7 +2619,7 @@
         <v>164</v>
       </c>
       <c r="B2" s="1">
-        <v>44819</v>
+        <v>44832</v>
       </c>
       <c r="C2">
         <v>2022</v>
